--- a/outputs/postGWAS_sep/IPR_cultivars.xlsx
+++ b/outputs/postGWAS_sep/IPR_cultivars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrodominguezrondon/Documents/PhD/septoria_GS/outputs/postGWAS_sep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C296928F-B477-A24C-B7ED-B033CAD2F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF9138-2DE0-0140-AE5C-74168E545993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{23C2F957-F7CB-6F4E-9D97-41BEE772675C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>gene</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>ATP-binding cassette sub-family D </t>
+  </si>
+  <si>
+    <t>ZtIPO323_125710</t>
+  </si>
+  <si>
+    <t>Two-component histidine protein kinase</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBB994E-BD87-E948-AC66-A75C656CEC41}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,6 +860,14 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
